--- a/Texas/WaterAllocation/TXwr_Allocation Schema Mapping to WaDE.xlsx
+++ b/Texas/WaterAllocation/TXwr_Allocation Schema Mapping to WaDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Texas\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A438499-7F77-4993-9988-D478E2B34EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FD6A3F-4735-4587-9FF9-4C0B75DC0F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="3" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="304">
   <si>
     <t>AllocationAmount</t>
   </si>
@@ -958,6 +958,12 @@
   </si>
   <si>
     <t>this is pod data</t>
+  </si>
+  <si>
+    <t>WR_TYPE_NO</t>
+  </si>
+  <si>
+    <t>"https://gisweb.tceq.texas.gov/WRRetrieveRights/?ID=" + WR_TYPE_NO</t>
   </si>
 </sst>
 </file>
@@ -1710,7 +1716,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1960,6 +1966,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3312,7 +3321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8BA2FE-2555-4166-A4DF-0203EE1C77D7}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -4712,8 +4721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6160,7 +6169,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>99</v>
       </c>
@@ -6173,14 +6182,14 @@
       <c r="D47" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E47" s="24" t="s">
-        <v>161</v>
+      <c r="E47" s="85" t="s">
+        <v>303</v>
       </c>
       <c r="F47" s="34" t="s">
         <v>39</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>39</v>
+        <v>302</v>
       </c>
       <c r="H47" s="74" t="s">
         <v>39</v>
@@ -6197,7 +6206,10 @@
     <sortCondition ref="A15:A47"/>
   </sortState>
   <phoneticPr fontId="25" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E47" r:id="rId1" display="https://gisweb.tceq.texas.gov/WRRetrieveRights/?ID=&quot; + WR_TYPE_NO" xr:uid="{D8521664-B9D3-43FB-B001-FD1501246327}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>